--- a/pro1.xlsx
+++ b/pro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27978\Desktop\2025年电工杯竞赛赛题\B题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F9B4A8-C32E-4F30-A10F-72FA88D1A3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81963D-6DF1-4D44-A109-AF2074CF055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3790" yWindow="7070" windowWidth="20160" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="20160" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
